--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Crust_crustaceans_FCT_EPC_012916.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Crust_crustaceans_FCT_EPC_012916.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30320" yWindow="-3420" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="-30320" yWindow="-3420" windowWidth="28800" windowHeight="12440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="c_Crust" sheetId="1" r:id="rId1"/>
@@ -2052,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -16015,9 +16015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Crust_crustaceans_FCT_EPC_012916.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Crust_crustaceans_FCT_EPC_012916.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30320" yWindow="-3420" windowWidth="28800" windowHeight="12440" activeTab="2"/>
+    <workbookView xWindow="1280" yWindow="1400" windowWidth="33600" windowHeight="16480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="c_Crust" sheetId="1" r:id="rId1"/>
@@ -11563,8 +11563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16015,7 +16015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>

--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Crust_crustaceans_FCT_EPC_012916.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Crust_crustaceans_FCT_EPC_012916.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1400" windowWidth="33600" windowHeight="16480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="c_Crust" sheetId="1" r:id="rId1"/>
@@ -859,13 +859,13 @@
     <t xml:space="preserve">F - FAO estimate from available sources of information </t>
   </si>
   <si>
-    <t>vit_d_μg</t>
-  </si>
-  <si>
     <t>potassium_g</t>
   </si>
   <si>
     <t>sodium_g</t>
+  </si>
+  <si>
+    <t>vit_d_µg</t>
   </si>
 </sst>
 </file>
@@ -11563,8 +11563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11624,10 +11624,10 @@
         <v>229</v>
       </c>
       <c r="Q1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" t="s">
         <v>277</v>
-      </c>
-      <c r="R1" t="s">
-        <v>278</v>
       </c>
       <c r="S1" t="s">
         <v>230</v>
@@ -11666,7 +11666,7 @@
         <v>241</v>
       </c>
       <c r="AE1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF1" t="s">
         <v>242</v>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="AD1" s="1" t="str">
         <f>FCT!AE1</f>
-        <v>vit_d_μg</v>
+        <v>vit_d_µg</v>
       </c>
       <c r="AE1" s="1" t="str">
         <f>FCT!AF1</f>
